--- a/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_TeaMeeting_2.xlsx
+++ b/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_TeaMeeting_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
   <si>
     <t>中文角色名</t>
   </si>
@@ -46,124 +46,238 @@
     <t>约翰逊</t>
   </si>
   <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>王总，这两天参观了你们的工厂，也看了不少产品。现在我想听听你们的报盘。</t>
+  </si>
+  <si>
+    <t>Mr. Wang, I visited your factory in the past few days and saw quite a few products. Now, I would like to hear your quotation.</t>
+  </si>
+  <si>
+    <t>王国信</t>
+  </si>
+  <si>
+    <t>WangGuoXin</t>
+  </si>
+  <si>
+    <t>好啊！不知道您对哪些产品感兴趣？</t>
+  </si>
+  <si>
+    <t>Sure! Which products are you interested in?</t>
+  </si>
+  <si>
+    <t>我想知道贵公司的茶叶价格，主要是英红九号和凤凰单枞。</t>
+  </si>
+  <si>
+    <t>I would like to know the prices of your company's tea, mainly the YBH9 (English Red No. 9) and Phoenix Dan Cong.</t>
+  </si>
+  <si>
+    <t>李文俊</t>
+  </si>
+  <si>
+    <t>LiWenJun</t>
+  </si>
+  <si>
+    <t>英红九号的价格是每斤三百六十美元，凤凰单枞每斤二百四十美元。都是最高等级的。</t>
+  </si>
+  <si>
+    <t>The price for YBH9 is three hundred sixty dollars per pound, and Phoenix Dan Cong is two hundred forty dollars per tin. Both are of the highest grade.</t>
+  </si>
+  <si>
+    <t>您说的价格包括运费吗？</t>
+  </si>
+  <si>
+    <t>Does the price you mentioned include shipping costs?</t>
+  </si>
+  <si>
+    <t>是的，价格包括成本和运费。</t>
+  </si>
+  <si>
+    <t>Yes, the price includes cost and shipping.</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>接受报价</t>
+  </si>
+  <si>
+    <t>Accept the offer</t>
+  </si>
+  <si>
+    <t>结局</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
-    <t>王总，这两天参观了你们的工厂，也看了不少产品。现在我想听听你们的报盘。</t>
-  </si>
-  <si>
-    <t>王国信</t>
-  </si>
-  <si>
-    <t>好啊！不知道您对哪些产品感兴趣？</t>
-  </si>
-  <si>
-    <t>我想知道贵公司的茶叶价格，主要是英红九号和凤凰单枞。</t>
-  </si>
-  <si>
-    <t>李文俊</t>
-  </si>
-  <si>
-    <t>英红九号的价格是每斤三百六十美元，凤凰单枞每斤二百四十美元。都是最高等级的。</t>
-  </si>
-  <si>
-    <t>您说的价格包括运费吗？</t>
-  </si>
-  <si>
-    <t>是的，价格包括成本和运费。</t>
-  </si>
-  <si>
-    <t>选项</t>
-  </si>
-  <si>
-    <t>接受报价</t>
-  </si>
-  <si>
-    <t>结局</t>
-  </si>
-  <si>
     <t>选择错误，报价过高</t>
   </si>
   <si>
+    <t>Incorrect choice, the quotation is too high</t>
+  </si>
+  <si>
     <t>回到上一选择节点</t>
   </si>
   <si>
+    <t>Return to the previous choice node</t>
+  </si>
+  <si>
     <t>跳转至正确节点</t>
   </si>
   <si>
+    <t>Jump to the correct node</t>
+  </si>
+  <si>
     <t>提示</t>
   </si>
   <si>
     <t>选择错误，报价过高，此处应选择“询问定价上涨原因”</t>
   </si>
   <si>
+    <t>Wrong selection, the quotation is too high. Here you should choose 'Inquire about the reason for the price increase'.</t>
+  </si>
+  <si>
     <t>询问定价上涨原因</t>
   </si>
   <si>
+    <t>Inquire about the reason for the price increase</t>
+  </si>
+  <si>
     <t>茉 莉</t>
   </si>
   <si>
+    <t>Molly</t>
+  </si>
+  <si>
     <t>李先生，英红九号的报盘似乎比去年高了百分之十。这是为什么？</t>
   </si>
   <si>
+    <t>Mr. Li, the offer price of Yinghong No. 9 seems to be ten percent higher than last year. Why is that?</t>
+  </si>
+  <si>
     <t>我们对英红九号进行了产品升级，使用了最高等级的头采单芽作为原理，味道和品质都有很大的改进，已经达到了特级的标准，所以成本也比去年高。我们不得不适当提高价格。</t>
   </si>
   <si>
+    <t>We have upgraded the product of Yinghong No. 9, using the highest grade of single bud as the raw material, resulting in significant improvements in flavor and quality, which has reached the special grade standard. Therefore, the cost is also higher than last year. We had to appropriately raise the price.</t>
+  </si>
+  <si>
     <t>选择错误，报价过高，此处应选择“提出砍价”</t>
   </si>
   <si>
+    <t>Wrong choice, the quote is too high. You should choose 'propose a discount' here.</t>
+  </si>
+  <si>
     <t>提出砍价</t>
   </si>
   <si>
+    <t>Make a price cut request</t>
+  </si>
+  <si>
     <t>这个头采单芽会有什么不同吗？</t>
   </si>
   <si>
+    <t>What difference does picking a single bud make?</t>
+  </si>
+  <si>
     <t>当然，英红九号是英德红茶的当家品种，属于大叶种红茶，不同等级间最重要的就是嫩度和采摘的时间，我们这次使用的头采一芽一叶，就是春茶首次采摘的最高等级的原料，芽头完整，附带一片嫩叶，嫩度高，内含物质丰富，香气和滋味接近单芽，是高端英红九号的主流等级，芽头肥嫩饱满，积累了冬季的养分，制成的茶香气非常好。</t>
   </si>
   <si>
+    <t xml:space="preserve">Of course, Yinghong No. 9 is the flagship variety of Yingde black tea, belonging to the large-leaf black tea type. The most important differences between various grades are tenderness and the picking time. The single bud and one leaf we are using this time is the highest grade material from the first picking of spring tea, with complete buds and an accompanying tender leaf. It has high tenderness, rich internal substances, and its aroma and taste are close to that of a single bud. This is the mainstream grade of high-end Yinghong No. 9, with fat and plump buds that have accumulated nutrients during winter, resulting in tea with a very good aroma. </t>
+  </si>
+  <si>
     <t>即使是这样，三百六十美元一斤还是贵了一些。我们是老客户了，能不能低一点儿给百分之五的折扣？</t>
   </si>
   <si>
+    <t>Even so, $360 per pound is still a bit expensive. We are long-time customers; could you please give us a 5% discount?</t>
+  </si>
+  <si>
     <t>提出拒绝</t>
   </si>
   <si>
+    <t>Raise an objection</t>
+  </si>
+  <si>
     <t>百分之五恐怕不行，您之前也体验过我们改进前后的产品，我们改进前使用的春茶一芽二叶的味道很明显不如现在的产品。不过，如果贵公司订购一千斤以上，我们可以给百分之二点五的折扣。</t>
   </si>
   <si>
+    <t>I'm afraid five percent won't work. You have experienced the products before and after our improvements. The taste of the spring tea with one bud and two leaves we used before is clearly not as good as the current product. However, if your company orders more than a thousand pounds, we can offer a two-point-five percent discount.</t>
+  </si>
+  <si>
     <t>不接受</t>
   </si>
   <si>
+    <t>Not accepted</t>
+  </si>
+  <si>
     <t>还是太贵了！如果销路不好，我们就要赔本了。我说，咱们双方再各让价一些。另外，我认为贵公司的凤凰单枞价格也高了一点儿。目前生产凤凰单枞的厂家很多，市场竞争很激烈。如果按这个价格进货，我们几乎就没有利润了</t>
   </si>
   <si>
+    <t>It's still too expensive! If sales are not good, we will incur losses. I suggest that both of us lower our prices a bit more. Furthermore, I think your company's Phoenix Dancong is priced a bit high. There are many manufacturers producing Phoenix Dancong now, and the market competition is very fierce. If we purchase at this price, we will hardly make any profit.</t>
+  </si>
+  <si>
     <t>对不起，这是我们的底价，不能再低了。或者您愿意考虑我们次一级的使用中山百年老枞单枞，但是产品质量上也会出现一些降低。</t>
   </si>
   <si>
+    <t>Sorry, this is our bottom price; we can't go any lower. Alternatively, would you consider our second-tier Zhongshan century-old Dancong, but the product quality will be somewhat lower.</t>
+  </si>
+  <si>
     <t>哦？您这边有样品可以品尝一下吗。</t>
   </si>
   <si>
+    <t>Oh? Do you have samples we can taste?</t>
+  </si>
+  <si>
     <t>有的，您稍等一下。</t>
   </si>
   <si>
+    <t>Yes, please wait a moment.</t>
+  </si>
+  <si>
     <t>下一步</t>
   </si>
   <si>
+    <t>Continue</t>
+  </si>
+  <si>
     <t>接受</t>
   </si>
   <si>
+    <t>Accept</t>
+  </si>
+  <si>
     <t>嗯，这个价格可以考虑。另外，我认为贵公司的凤凰单枞价格也高了一点儿。目前生产凤凰单枞的厂家很多，市场竞争很激烈。如果按这个价格进货，我们几乎就没有利润了。</t>
   </si>
   <si>
+    <t>Well, this price is negotiable. Also, I believe the price of your company's Phoenix Dancong is a bit high. Currently, there are many manufacturers producing Phoenix Dancong, and the market competition is very fierce. If we purchase at this price, we will have almost no profit.</t>
+  </si>
+  <si>
     <t>可是我们的产品质量是国际公认的，在市场上是有竞争力的。我们使用的是高标准的高山百年老枞单枞，成本非常高，产品效果也非常好。</t>
   </si>
   <si>
+    <t>But our product quality is internationally recognized and competitive in the market. We use high-standard, high-mountain hundred-year-old Dancong, which is very costly and yields excellent results.</t>
+  </si>
+  <si>
     <t>对！正是这个原因，我们才希望从贵公司进货。这样吧，英红九号和凤凰单枞我们各订购两千斤，都给百分之三的折扣，怎么样？</t>
   </si>
   <si>
+    <t>Exactly! That's why we hope to source from your company. How about this, we order 2,000 jin of Yinghong No. 9 and 2,000 jin of Phoenix Dancong, with a 3% discount on both, how does that sound?</t>
+  </si>
+  <si>
     <t>行！这个价格和数量都可以接受。薄利多销嘛。我们一言为定！</t>
   </si>
   <si>
+    <t>Sure! This price and quantity are acceptable. Low profit, but high sales. It's a deal!</t>
+  </si>
+  <si>
     <t>进入下一模块</t>
+  </si>
+  <si>
+    <t>Enter next module</t>
   </si>
 </sst>
 </file>
@@ -845,6 +959,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1100,7 +1221,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1133,21 +1254,21 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1158,24 +1279,24 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1186,304 +1307,304 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1494,80 +1615,80 @@
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1578,24 +1699,24 @@
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1606,38 +1727,38 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
